--- a/KanBan-App/Documents/Zeitmanagement/Zeitplanung.xlsx
+++ b/KanBan-App/Documents/Zeitmanagement/Zeitplanung.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -42,13 +42,7 @@
     <t>31.08.2016</t>
   </si>
   <si>
-    <t>8 Stunden</t>
-  </si>
-  <si>
     <t>30.08.2016</t>
-  </si>
-  <si>
-    <t>3 Stunden</t>
   </si>
   <si>
     <t>Vorlesung</t>
@@ -56,11 +50,23 @@
   <si>
     <t>Einlesen in Technologien, beschäftigen mit dem Thema, Ausarbeiten von Vorschlag</t>
   </si>
+  <si>
+    <t>Skizze + Projektdefinition</t>
+  </si>
+  <si>
+    <t>Skizze + Projektstrukturplan überarbeitet</t>
+  </si>
+  <si>
+    <t>Counter Lloyd</t>
+  </si>
+  <si>
+    <t>Counter Sebastian</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -195,6 +201,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -230,6 +253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,10 +458,10 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="71.5546875" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -437,75 +477,2037 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>((IF(A2="Lloyd",C2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>SUM(F:F)</f>
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <f>((IF(A2="Sebastian",C2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>SUM(H:H)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">((IF(A3="Lloyd",C3,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">((IF(A3="Sebastian",C3,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f>((IF(A9="Lloyd",C9,0)))</f>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f>((IF(A9="Sebastian",C9,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f>((IF(A10="Lloyd",C10,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>((IF(A10="Sebastian",C10,0)))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f>((IF(A11="Lloyd",C11,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>((IF(A11="Sebastian",C11,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2">
         <v>42614</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <f>((IF(A12="Lloyd",C12,0)))</f>
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <f>((IF(A12="Sebastian",C12,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <v>42614</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <f>((IF(A13="Lloyd",C13,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>((IF(A13="Sebastian",C13,0)))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <f>((IF(A14="Lloyd",C14,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>((IF(A14="Sebastian",C14,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42618</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
+      </c>
+      <c r="F15">
+        <f>((IF(A15="Lloyd",C15,0)))</f>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f>((IF(A15="Sebastian",C15,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42618</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <f>((IF(A16="Lloyd",C16,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>((IF(A16="Sebastian",C16,0)))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <f>((IF(A17="Lloyd",C17,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>((IF(A17="Sebastian",C17,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42619</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42619</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="2">((IF(A67="Lloyd",C67,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="3">((IF(A67="Sebastian",C67,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="4">((IF(A131="Lloyd",C131,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H192" si="5">((IF(A131="Sebastian",C131,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/KanBan-App/Documents/Zeitmanagement/Zeitplanung.xlsx
+++ b/KanBan-App/Documents/Zeitmanagement/Zeitplanung.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Counter Sebastian</t>
+  </si>
+  <si>
+    <t>MS-Project installieren und die Hälfte der Arbeitspakete beschreiben</t>
+  </si>
+  <si>
+    <t>Team Besprechung, PSP als Gantt umgesetzt</t>
+  </si>
+  <si>
+    <t>Team Besprechung, Protokoll Vorlage erstellen und schreiben, VS Projekt erstellen, Informationen über Entity Framework einholen</t>
   </si>
 </sst>
 </file>
@@ -448,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +500,7 @@
       </c>
       <c r="G2">
         <f>SUM(F:F)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <f>((IF(A2="Sebastian",C2,0)))</f>
@@ -499,7 +508,7 @@
       </c>
       <c r="I2">
         <f>SUM(H:H)</f>
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -588,11 +597,11 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <f>((IF(A9="Lloyd",C9,0)))</f>
+        <f t="shared" ref="F9:F17" si="2">((IF(A9="Lloyd",C9,0)))</f>
         <v>8</v>
       </c>
       <c r="H9">
-        <f>((IF(A9="Sebastian",C9,0)))</f>
+        <f t="shared" ref="H9:H17" si="3">((IF(A9="Sebastian",C9,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -610,21 +619,21 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <f>((IF(A10="Lloyd",C10,0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>((IF(A10="Sebastian",C10,0)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F11">
-        <f>((IF(A11="Lloyd",C11,0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>((IF(A11="Sebastian",C11,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -642,11 +651,11 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <f>((IF(A12="Lloyd",C12,0)))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H12">
-        <f>((IF(A12="Sebastian",C12,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -664,21 +673,21 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f>((IF(A13="Lloyd",C13,0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>((IF(A13="Sebastian",C13,0)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F14">
-        <f>((IF(A14="Lloyd",C14,0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>((IF(A14="Sebastian",C14,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -696,11 +705,11 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <f>((IF(A15="Lloyd",C15,0)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H15">
-        <f>((IF(A15="Sebastian",C15,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -718,21 +727,21 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <f>((IF(A16="Lloyd",C16,0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>((IF(A16="Sebastian",C16,0)))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F17">
-        <f>((IF(A17="Lloyd",C17,0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>((IF(A17="Sebastian",C17,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -743,6 +752,9 @@
       <c r="B18" s="2">
         <v>42619</v>
       </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -759,13 +771,19 @@
       <c r="B19" s="2">
         <v>42619</v>
       </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -779,9 +797,21 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42620</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
@@ -789,13 +819,25 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42620</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -809,9 +851,21 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42621</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
@@ -819,13 +873,25 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42621</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1240,1273 +1306,1273 @@
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="2">((IF(A67="Lloyd",C67,0)))</f>
+        <f t="shared" ref="F67:F130" si="4">((IF(A67="Lloyd",C67,0)))</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="3">((IF(A67="Sebastian",C67,0)))</f>
+        <f t="shared" ref="H67:H130" si="5">((IF(A67="Sebastian",C67,0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="4">((IF(A131="Lloyd",C131,0)))</f>
+        <f t="shared" ref="F131:F194" si="6">((IF(A131="Lloyd",C131,0)))</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H192" si="5">((IF(A131="Sebastian",C131,0)))</f>
+        <f t="shared" ref="H131:H192" si="7">((IF(A131="Sebastian",C131,0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/KanBan-App/Documents/Zeitmanagement/Zeitplanung.xlsx
+++ b/KanBan-App/Documents/Zeitmanagement/Zeitplanung.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Team Besprechung, Protokoll Vorlage erstellen und schreiben, VS Projekt erstellen, Informationen über Entity Framework einholen</t>
+  </si>
+  <si>
+    <t>Gantt weiter ausfüllen</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +503,7 @@
       </c>
       <c r="G2">
         <f>SUM(F:F)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <f>((IF(A2="Sebastian",C2,0)))</f>
@@ -508,7 +511,7 @@
       </c>
       <c r="I2">
         <f>SUM(H:H)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -858,14 +861,14 @@
         <v>42621</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
@@ -880,7 +883,7 @@
         <v>42621</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -891,7 +894,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -905,9 +908,21 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42621</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
@@ -915,13 +930,25 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42621</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
       <c r="F28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">

--- a/KanBan-App/Documents/Zeitmanagement/Zeitplanung.xlsx
+++ b/KanBan-App/Documents/Zeitmanagement/Zeitplanung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -69,10 +69,28 @@
     <t>Team Besprechung, PSP als Gantt umgesetzt</t>
   </si>
   <si>
-    <t>Team Besprechung, Protokoll Vorlage erstellen und schreiben, VS Projekt erstellen, Informationen über Entity Framework einholen</t>
+    <t>Gantt weiter ausfüllen</t>
   </si>
   <si>
-    <t>Gantt weiter ausfüllen</t>
+    <t>Überarbeiten Gantt</t>
+  </si>
+  <si>
+    <t>UML-Diagramme erstellt, Programmablauf beschrieben</t>
+  </si>
+  <si>
+    <t>Mockups erstellt</t>
+  </si>
+  <si>
+    <t>Datenbankmodell, Entity Framework</t>
+  </si>
+  <si>
+    <t>Team Besprechung</t>
+  </si>
+  <si>
+    <t>Protokoll Vorlage erstellen und schreiben, VS Projekt erstellen, Informationen über Entity Framework einholen</t>
+  </si>
+  <si>
+    <t>PSP als Gantt umgesetzt, KanBan Recherche</t>
   </si>
 </sst>
 </file>
@@ -458,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +521,7 @@
       </c>
       <c r="G2">
         <f>SUM(F:F)</f>
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <f>((IF(A2="Sebastian",C2,0)))</f>
@@ -511,16 +529,16 @@
       </c>
       <c r="I2">
         <f>SUM(H:H)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">((IF(A3="Lloyd",C3,0)))</f>
+        <f t="shared" ref="F3:F69" si="0">((IF(A3="Lloyd",C3,0)))</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="1">((IF(A3="Sebastian",C3,0)))</f>
+        <f t="shared" ref="H3:H69" si="1">((IF(A3="Sebastian",C3,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -755,12 +773,15 @@
       <c r="B18" s="2">
         <v>42619</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
@@ -775,7 +796,7 @@
         <v>42619</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -786,10 +807,11 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -804,17 +826,17 @@
         <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>42620</v>
+        <v>42619</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
@@ -826,13 +848,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>42620</v>
+        <v>42619</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -840,7 +862,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -858,17 +880,17 @@
         <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>42621</v>
+        <v>42620</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
@@ -880,13 +902,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>42621</v>
+        <v>42620</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -894,7 +916,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -915,14 +937,14 @@
         <v>42621</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
@@ -937,10 +959,10 @@
         <v>42621</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -948,7 +970,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -962,9 +984,21 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42621</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
@@ -972,13 +1006,25 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42621</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -991,27 +1037,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42622</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42623</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
       <c r="F34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1021,27 +1091,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>42623</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42624</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
       <c r="F37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1051,27 +1145,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42626</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42626</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
       <c r="F40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1081,27 +1199,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42626</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42626</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
       <c r="F43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F44">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1111,27 +1253,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42627</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42627</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
       <c r="F46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F47">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1141,27 +1307,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42627</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42627</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
       <c r="F49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F50">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1171,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1181,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1191,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F53">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1201,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F54">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1211,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1221,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F56">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1231,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F57">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1241,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1251,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F59">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1261,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F60">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1271,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F61">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1281,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F62">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1291,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1301,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F64">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1333,41 +1523,41 @@
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="4">((IF(A67="Lloyd",C67,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="5">((IF(A67="Sebastian",C67,0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F70:F133" si="4">((IF(A70="Lloyd",C70,0)))</f>
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H70:H133" si="5">((IF(A70="Sebastian",C70,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -1973,41 +2163,41 @@
     </row>
     <row r="131" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="6">((IF(A131="Lloyd",C131,0)))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H192" si="7">((IF(A131="Sebastian",C131,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F134">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F134:F197" si="6">((IF(A134="Lloyd",C134,0)))</f>
         <v>0</v>
       </c>
       <c r="H134">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H134:H195" si="7">((IF(A134="Sebastian",C134,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -2591,14 +2781,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F193">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="H193">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F194">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F197">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
